--- a/keywords/KeywordDriver.xlsx
+++ b/keywords/KeywordDriver.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>#</t>
   </si>
@@ -49,31 +49,22 @@
     <t>Run</t>
   </si>
   <si>
-    <t>TC001</t>
-  </si>
-  <si>
     <t>Testcase (Keyword)</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Login and Logout</t>
-  </si>
-  <si>
-    <t>Create Lead</t>
-  </si>
-  <si>
     <t>TC004 - Merge Contact</t>
   </si>
   <si>
     <t xml:space="preserve"> Merge Contact</t>
+  </si>
+  <si>
+    <t>CreateContact_TC003</t>
+  </si>
+  <si>
+    <t>Create Contact</t>
   </si>
 </sst>
 </file>
@@ -173,13 +164,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>562630</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -539,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -571,13 +562,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -585,27 +576,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/keywords/KeywordDriver.xlsx
+++ b/keywords/KeywordDriver.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>Create Contact</t>
+  </si>
+  <si>
+    <t>DeleteContact</t>
+  </si>
+  <si>
+    <t>TC005 - Edit Contact</t>
+  </si>
+  <si>
+    <t>Edit Contact</t>
   </si>
 </sst>
 </file>
@@ -530,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,6 +594,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
